--- a/RoverWingBoard/pins-V3.xlsx
+++ b/RoverWingBoard/pins-V3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shurik\Dropbox\Robotics\RoverWing\RoverWingHardware\RoverWingBoard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A5C1CC-E2CF-4DB5-81DC-25C5113FF0FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AF872E-8A02-4E1E-8910-4D30C57E2DC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="970" yWindow="390" windowWidth="8150" windowHeight="9010" xr2:uid="{2592871D-5CB4-45BA-AF33-93636A88B9F2}"/>
+    <workbookView xWindow="4080" yWindow="0" windowWidth="12030" windowHeight="9320" xr2:uid="{2592871D-5CB4-45BA-AF33-93636A88B9F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -891,7 +891,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -963,13 +963,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
